--- a/medicine/Psychotrope/Rodolfo_Dieseldorff/Rodolfo_Dieseldorff.xlsx
+++ b/medicine/Psychotrope/Rodolfo_Dieseldorff/Rodolfo_Dieseldorff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rodolfo Dieseldorff, négociant et propriétaire terrien, a été le premier Allemand à arriver au Guatemala[Information douteuse], vers 1863, qui a apporté de nouvelles influences et de changements notables dans le commerce et la culture architecturale du lieu. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rodolfo Dieseldorff est né au milieu du XIXe siècle et mort dans les années 1940. À la fin de sa longue carrière à voyager sur les mers, Rodolfo Dieseldorff choisi Gualán, dans la région de Zacapa, au Guatemala. Il a expérimenté  la culture de coton, mais les fléaux agricoles lui ont fait perdre ses récolte et l'ont forcé à chercher d'autres solutions, comme un nouveau projet dans le commerce, ce qui le conduit à Alta Verapaz, où il s'installe. À la suite de l'envoi d'une lettre enthousiaste en Allemagne, il a provoqué l'expatriation d'une vague d'Allemands vers le Guatemala. Plus tard, il invite toute sa famille à vivre au Guatemala.
-Les descendants de sa famille ont encore plusieurs exploitations agricoles en Alta Verapaz où le café est toujours cultivé[1].
+Les descendants de sa famille ont encore plusieurs exploitations agricoles en Alta Verapaz où le café est toujours cultivé.
 </t>
         </is>
       </c>
